--- a/Racecard_20250413_8.xlsx
+++ b/Racecard_20250413_8.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="305">
   <si>
     <t>日期</t>
   </si>
@@ -113,12 +113,849 @@
   </si>
   <si>
     <t>進口類別</t>
+  </si>
+  <si>
+    <t>上次總場次</t>
+  </si>
+  <si>
+    <t>上次日期</t>
+  </si>
+  <si>
+    <t>上次班次</t>
+  </si>
+  <si>
+    <t>上次路程</t>
+  </si>
+  <si>
+    <t>上次名次</t>
+  </si>
+  <si>
+    <t>上次騎師</t>
+  </si>
+  <si>
+    <t>上次賠率</t>
+  </si>
+  <si>
+    <t>上次負磅</t>
+  </si>
+  <si>
+    <t>上次負磅 +/-</t>
+  </si>
+  <si>
+    <t>上次檔位</t>
+  </si>
+  <si>
+    <t>上次檔位 +/-</t>
+  </si>
+  <si>
+    <t>上次賽事時間1</t>
+  </si>
+  <si>
+    <t>上次賽事時間2</t>
+  </si>
+  <si>
+    <t>上次賽事時間3</t>
+  </si>
+  <si>
+    <t>上次賽事時間4</t>
+  </si>
+  <si>
+    <t>上次賽事時間5</t>
+  </si>
+  <si>
+    <t>上次賽事時間6</t>
+  </si>
+  <si>
+    <t>上次完成時間</t>
+  </si>
+  <si>
+    <t>上次第 1 段</t>
+  </si>
+  <si>
+    <t>上次第 2 段</t>
+  </si>
+  <si>
+    <t>上次第 3 段</t>
+  </si>
+  <si>
+    <t>上次第 4 段</t>
+  </si>
+  <si>
+    <t>上次第 5 段</t>
+  </si>
+  <si>
+    <t>上次第 6 段</t>
+  </si>
+  <si>
+    <t>上次最後 800</t>
+  </si>
+  <si>
+    <t>上次調整基數</t>
+  </si>
+  <si>
+    <t>上次調整後最後 800</t>
+  </si>
+  <si>
+    <t>上次調整後完成時間</t>
+  </si>
+  <si>
+    <t>前次總場次</t>
+  </si>
+  <si>
+    <t>前次日期</t>
+  </si>
+  <si>
+    <t>前次班次</t>
+  </si>
+  <si>
+    <t>前次路程</t>
+  </si>
+  <si>
+    <t>前次名次</t>
+  </si>
+  <si>
+    <t>前次騎師</t>
+  </si>
+  <si>
+    <t>前次賠率</t>
+  </si>
+  <si>
+    <t>前次負磅</t>
+  </si>
+  <si>
+    <t>前次負磅 +/-</t>
+  </si>
+  <si>
+    <t>前次檔位</t>
+  </si>
+  <si>
+    <t>前次檔位 +/-</t>
+  </si>
+  <si>
+    <t>前次賽事時間1</t>
+  </si>
+  <si>
+    <t>前次賽事時間2</t>
+  </si>
+  <si>
+    <t>前次賽事時間3</t>
+  </si>
+  <si>
+    <t>前次賽事時間4</t>
+  </si>
+  <si>
+    <t>前次賽事時間5</t>
+  </si>
+  <si>
+    <t>前次賽事時間6</t>
+  </si>
+  <si>
+    <t>前次完成時間</t>
+  </si>
+  <si>
+    <t>前次第 1 段</t>
+  </si>
+  <si>
+    <t>前次第 2 段</t>
+  </si>
+  <si>
+    <t>前次第 3 段</t>
+  </si>
+  <si>
+    <t>前次第 4 段</t>
+  </si>
+  <si>
+    <t>前次第 5 段</t>
+  </si>
+  <si>
+    <t>前次第 6 段</t>
+  </si>
+  <si>
+    <t>前次最後 800</t>
+  </si>
+  <si>
+    <t>前次調整基數</t>
+  </si>
+  <si>
+    <t>前次調整後最後 800</t>
+  </si>
+  <si>
+    <t>前次調整後完成時間</t>
+  </si>
+  <si>
+    <t>馬名2</t>
+  </si>
+  <si>
+    <t>上次調整後完成時間2</t>
+  </si>
+  <si>
+    <t>上次賽事</t>
+  </si>
+  <si>
+    <t>前次調整後完成時間2</t>
+  </si>
+  <si>
+    <t>前次賽事</t>
+  </si>
+  <si>
+    <t>2次調整後平均時間</t>
+  </si>
+  <si>
+    <t>上次調整後完成秒速</t>
+  </si>
+  <si>
+    <t>前次調整後完成秒速</t>
+  </si>
+  <si>
+    <t>2次調整後平均秒速</t>
+  </si>
+  <si>
+    <t>2次較快完成秒速</t>
+  </si>
+  <si>
+    <t>ST</t>
+  </si>
+  <si>
+    <t>草地</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "C" 賽道</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 第一班</t>
+  </si>
+  <si>
+    <t>5/4/7/3/5/7</t>
+  </si>
+  <si>
+    <t>5/7/4/10/5/10</t>
+  </si>
+  <si>
+    <t>8/7/1/1/3/2</t>
+  </si>
+  <si>
+    <t>4/9/12/13/1/4</t>
+  </si>
+  <si>
+    <t>7/5/5/6/10/7</t>
+  </si>
+  <si>
+    <t>5/1/6/1/2/7</t>
+  </si>
+  <si>
+    <t>3/7/2/4/3/1</t>
+  </si>
+  <si>
+    <t>8/4/1/2/5/6</t>
+  </si>
+  <si>
+    <t>3/10/2/8/1/1</t>
+  </si>
+  <si>
+    <t>美麗同享</t>
+  </si>
+  <si>
+    <t>賢者無敵</t>
+  </si>
+  <si>
+    <t>手機錶霸</t>
+  </si>
+  <si>
+    <t>綠族無限</t>
+  </si>
+  <si>
+    <t>神虎龍駒</t>
+  </si>
+  <si>
+    <t>球星</t>
+  </si>
+  <si>
+    <t>飛鷹翱翔</t>
+  </si>
+  <si>
+    <t>一先生</t>
+  </si>
+  <si>
+    <t>開心寶寶</t>
+  </si>
+  <si>
+    <t>E058</t>
+  </si>
+  <si>
+    <t>H301</t>
+  </si>
+  <si>
+    <t>H485</t>
+  </si>
+  <si>
+    <t>H338</t>
+  </si>
+  <si>
+    <t>H164</t>
+  </si>
+  <si>
+    <t>H412</t>
+  </si>
+  <si>
+    <t>H117</t>
+  </si>
+  <si>
+    <t>G227</t>
+  </si>
+  <si>
+    <t>J142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+艾道拿
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+黃寶妮 (-10)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+布文
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+霍宏聲
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+潘頓
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+田泰安
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+艾兆禮
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+班德禮
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+鍾易禮 (-3)
+</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>告東尼</t>
+  </si>
+  <si>
+    <t>賀賢</t>
+  </si>
+  <si>
+    <t>呂健威</t>
+  </si>
+  <si>
+    <t>伍鵬志</t>
+  </si>
+  <si>
+    <t>大衛希斯</t>
+  </si>
+  <si>
+    <t>姚本輝</t>
+  </si>
+  <si>
+    <t>-1</t>
+  </si>
+  <si>
+    <t>-2</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>1.21.55</t>
+  </si>
+  <si>
+    <t>1.20.81</t>
+  </si>
+  <si>
+    <t>1.20.89</t>
+  </si>
+  <si>
+    <t>1.21.17</t>
+  </si>
+  <si>
+    <t>1.21.11</t>
+  </si>
+  <si>
+    <t>1.20.80</t>
+  </si>
+  <si>
+    <t>1.20.53</t>
+  </si>
+  <si>
+    <t>1.21.37</t>
+  </si>
+  <si>
+    <t>1.20.06</t>
+  </si>
+  <si>
+    <t>閹</t>
+  </si>
+  <si>
+    <t>5,481,750</t>
+  </si>
+  <si>
+    <t>1,181,450</t>
+  </si>
+  <si>
+    <t>5,054,400</t>
+  </si>
+  <si>
+    <t>223,200</t>
+  </si>
+  <si>
+    <t>1,226,400</t>
+  </si>
+  <si>
+    <t>12,678,400</t>
+  </si>
+  <si>
+    <t>3,397,200</t>
+  </si>
+  <si>
+    <t>2,868,900</t>
+  </si>
+  <si>
+    <t>5,567,600</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>TT</t>
+  </si>
+  <si>
+    <t>CP</t>
+  </si>
+  <si>
+    <t>XB</t>
+  </si>
+  <si>
+    <t>CP/TT</t>
+  </si>
+  <si>
+    <t>郭羅桂珍與郭浩泉</t>
+  </si>
+  <si>
+    <t>22/23 賀賢練馬師賽馬團體</t>
+  </si>
+  <si>
+    <t>楊潔明</t>
+  </si>
+  <si>
+    <t>傲風團體</t>
+  </si>
+  <si>
+    <t>洪羽緁</t>
+  </si>
+  <si>
+    <t>香港足球會團體</t>
+  </si>
+  <si>
+    <t>馬鏡澄、馬博文與馬約禮</t>
+  </si>
+  <si>
+    <t>史立德</t>
+  </si>
+  <si>
+    <t>陳俊文</t>
+  </si>
+  <si>
+    <t>Sebring</t>
+  </si>
+  <si>
+    <t>Thronum</t>
+  </si>
+  <si>
+    <t>Zoustar</t>
+  </si>
+  <si>
+    <t>Deep Field</t>
+  </si>
+  <si>
+    <t>Mehmas</t>
+  </si>
+  <si>
+    <t>Rubick</t>
+  </si>
+  <si>
+    <t>Starspangledbanner</t>
+  </si>
+  <si>
+    <t>The Gurkha</t>
+  </si>
+  <si>
+    <t>Brave Smash</t>
+  </si>
+  <si>
+    <t>Impressive Jeuney</t>
+  </si>
+  <si>
+    <t>Thorsborne</t>
+  </si>
+  <si>
+    <t>Fortune Of War</t>
+  </si>
+  <si>
+    <t>Little Favours</t>
+  </si>
+  <si>
+    <t>Next Trial</t>
+  </si>
+  <si>
+    <t>Emirates Comfort</t>
+  </si>
+  <si>
+    <t>Drombeg Dawn</t>
+  </si>
+  <si>
+    <t>Dietrich</t>
+  </si>
+  <si>
+    <t>Been Scene</t>
+  </si>
+  <si>
+    <t>PP</t>
+  </si>
+  <si>
+    <t>ISG</t>
+  </si>
+  <si>
+    <t>PPG</t>
+  </si>
+  <si>
+    <t>2025/01/01</t>
+  </si>
+  <si>
+    <t>2025/02/23</t>
+  </si>
+  <si>
+    <t>2025/01/12</t>
+  </si>
+  <si>
+    <t>2025/01/31</t>
+  </si>
+  <si>
+    <t>2025/03/23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">三級賽 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">一級賽 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">第二班 </t>
+  </si>
+  <si>
+    <t>布文</t>
+  </si>
+  <si>
+    <t>霍宏聲</t>
+  </si>
+  <si>
+    <t>班德禮</t>
+  </si>
+  <si>
+    <t>薛恩</t>
+  </si>
+  <si>
+    <t>何澤堯</t>
+  </si>
+  <si>
+    <t>艾道拿</t>
+  </si>
+  <si>
+    <t>黃寶妮</t>
+  </si>
+  <si>
+    <t>莫雅</t>
+  </si>
+  <si>
+    <t>57.68</t>
+  </si>
+  <si>
+    <t>57.73</t>
+  </si>
+  <si>
+    <t>57.87</t>
+  </si>
+  <si>
+    <t>57.91</t>
+  </si>
+  <si>
+    <t>57.06</t>
+  </si>
+  <si>
+    <t>1:20.91</t>
+  </si>
+  <si>
+    <t>1:20.33</t>
+  </si>
+  <si>
+    <t>1:20.89</t>
+  </si>
+  <si>
+    <t>1:21.29</t>
+  </si>
+  <si>
+    <t>1:19.92</t>
+  </si>
+  <si>
+    <t>1:21.75</t>
+  </si>
+  <si>
+    <t>1:20.81</t>
+  </si>
+  <si>
+    <t>1:21.17</t>
+  </si>
+  <si>
+    <t>1:21.67</t>
+  </si>
+  <si>
+    <t>1:21.62</t>
+  </si>
+  <si>
+    <t>1:21.37</t>
+  </si>
+  <si>
+    <t>1:20.06</t>
+  </si>
+  <si>
+    <t>1:21.93</t>
+  </si>
+  <si>
+    <t>1:20.79</t>
+  </si>
+  <si>
+    <t>1:20.8</t>
+  </si>
+  <si>
+    <t>1:21.19</t>
+  </si>
+  <si>
+    <t>1:21.81</t>
+  </si>
+  <si>
+    <t>1:20.94</t>
+  </si>
+  <si>
+    <t>1:21.4</t>
+  </si>
+  <si>
+    <t>1:21.35</t>
+  </si>
+  <si>
+    <t>1:19.93</t>
+  </si>
+  <si>
+    <t>2024/03/10</t>
+  </si>
+  <si>
+    <t>2024/06/23</t>
+  </si>
+  <si>
+    <t>2024/09/22</t>
+  </si>
+  <si>
+    <t>2024/12/08</t>
+  </si>
+  <si>
+    <t>2024/06/02</t>
+  </si>
+  <si>
+    <t>梁家俊</t>
+  </si>
+  <si>
+    <t>田泰安</t>
+  </si>
+  <si>
+    <t>希威森</t>
+  </si>
+  <si>
+    <t>艾兆禮</t>
+  </si>
+  <si>
+    <t>貝知仁</t>
+  </si>
+  <si>
+    <t>59.55</t>
+  </si>
+  <si>
+    <t>58.46</t>
+  </si>
+  <si>
+    <t>59.35</t>
+  </si>
+  <si>
+    <t>58.49</t>
+  </si>
+  <si>
+    <t>1:00.64</t>
+  </si>
+  <si>
+    <t>1:22.18</t>
+  </si>
+  <si>
+    <t>1:21.77</t>
+  </si>
+  <si>
+    <t>1:22.74</t>
+  </si>
+  <si>
+    <t>1:22.36</t>
+  </si>
+  <si>
+    <t>1:22.64</t>
+  </si>
+  <si>
+    <t>1:22.83</t>
+  </si>
+  <si>
+    <t>1:21.32</t>
+  </si>
+  <si>
+    <t>1:21.20</t>
+  </si>
+  <si>
+    <t>1:23.16</t>
+  </si>
+  <si>
+    <t>1:22.76</t>
+  </si>
+  <si>
+    <t>1:21.0</t>
+  </si>
+  <si>
+    <t>1:21.99</t>
+  </si>
+  <si>
+    <t>1:21.31</t>
+  </si>
+  <si>
+    <t>1:21.07</t>
+  </si>
+  <si>
+    <t>1:22.9</t>
+  </si>
+  <si>
+    <t>1:21.27</t>
+  </si>
+  <si>
+    <t>[01/01] 1400 布文 (7) 13.0</t>
+  </si>
+  <si>
+    <t>[23/02] 1400 霍宏聲 (7) 98.0</t>
+  </si>
+  <si>
+    <t>[23/02] 1400 班德禮 (8) 18.0</t>
+  </si>
+  <si>
+    <t>[23/02] 1400 薛恩 (9) 72.0</t>
+  </si>
+  <si>
+    <t>[01/01] 1400 何澤堯 (6) 17.0</t>
+  </si>
+  <si>
+    <t>[12/01] 1400 艾道拿 (1) 6.6</t>
+  </si>
+  <si>
+    <t>[31/01] 1400 黃寶妮 (7) 7.0</t>
+  </si>
+  <si>
+    <t>[31/01] 1400 班德禮 (2) 57.0</t>
+  </si>
+  <si>
+    <t>[23/03] 1400 莫雅 (3) 5.1</t>
+  </si>
+  <si>
+    <t>[10/03] 1400 梁家俊 (7) 43.0</t>
+  </si>
+  <si>
+    <t>[01/01] 1400 田泰安 (1) 2.2</t>
+  </si>
+  <si>
+    <t>[23/06] 1400 田泰安 (1) 3.1</t>
+  </si>
+  <si>
+    <t>[22/09] 1400 何澤堯 (2) 7.2</t>
+  </si>
+  <si>
+    <t>[08/12] 1400 希威森 (2) 8.2</t>
+  </si>
+  <si>
+    <t>[01/01] 1400 艾兆禮 (2) 8.4</t>
+  </si>
+  <si>
+    <t>[02/06] 1400 班德禮 (6) 18.0</t>
+  </si>
+  <si>
+    <t>[12/01] 1400 貝知仁 (8) 12.0</t>
+  </si>
+  <si>
+    <t>1:22.34</t>
+  </si>
+  <si>
+    <t>1:20.9</t>
+  </si>
+  <si>
+    <t>1:21.59</t>
+  </si>
+  <si>
+    <t>1:22.28</t>
+  </si>
+  <si>
+    <t>1:21.12</t>
+  </si>
+  <si>
+    <t>1:21.23</t>
+  </si>
+  <si>
+    <t>1:22.12</t>
+  </si>
+  <si>
+    <t>1:20.6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -171,11 +1008,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -470,13 +1308,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AG1"/>
+  <dimension ref="A1:CU10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:33">
+    <row r="1" spans="1:99">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -575,6 +1413,2460 @@
       </c>
       <c r="AG1" s="1" t="s">
         <v>32</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="CH1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="CI1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="CJ1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="CK1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="CL1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="CM1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="CN1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="CO1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="CP1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="CQ1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="CR1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="CS1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="CT1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CU1" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:99">
+      <c r="A2" s="2">
+        <v>45760</v>
+      </c>
+      <c r="B2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C2">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F2" t="s">
+        <v>102</v>
+      </c>
+      <c r="G2">
+        <v>1400</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s">
+        <v>103</v>
+      </c>
+      <c r="J2" t="s">
+        <v>112</v>
+      </c>
+      <c r="K2" t="s">
+        <v>121</v>
+      </c>
+      <c r="L2">
+        <v>135</v>
+      </c>
+      <c r="M2" t="s">
+        <v>130</v>
+      </c>
+      <c r="O2">
+        <v>9</v>
+      </c>
+      <c r="P2" t="s">
+        <v>140</v>
+      </c>
+      <c r="R2">
+        <v>116</v>
+      </c>
+      <c r="S2" t="s">
+        <v>146</v>
+      </c>
+      <c r="U2" t="s">
+        <v>149</v>
+      </c>
+      <c r="V2" t="s">
+        <v>150</v>
+      </c>
+      <c r="W2">
+        <v>8</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>159</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>160</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>169</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>173</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>177</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>186</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>195</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>204</v>
+      </c>
+      <c r="AH2">
+        <v>2024314</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>207</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>212</v>
+      </c>
+      <c r="AK2">
+        <v>1400</v>
+      </c>
+      <c r="AL2">
+        <v>7</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>215</v>
+      </c>
+      <c r="AN2">
+        <v>13</v>
+      </c>
+      <c r="AO2">
+        <v>129</v>
+      </c>
+      <c r="AP2">
+        <v>6</v>
+      </c>
+      <c r="AQ2">
+        <v>4</v>
+      </c>
+      <c r="AR2">
+        <v>5</v>
+      </c>
+      <c r="AS2">
+        <v>13.27</v>
+      </c>
+      <c r="AT2">
+        <v>34.75</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>223</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>228</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>233</v>
+      </c>
+      <c r="AZ2">
+        <v>14.15</v>
+      </c>
+      <c r="BA2">
+        <v>21.92</v>
+      </c>
+      <c r="BB2">
+        <v>22.61</v>
+      </c>
+      <c r="BC2">
+        <v>23.07</v>
+      </c>
+      <c r="BF2">
+        <v>45.68</v>
+      </c>
+      <c r="BG2">
+        <v>0.18</v>
+      </c>
+      <c r="BH2">
+        <v>45.86</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>240</v>
+      </c>
+      <c r="BJ2">
+        <v>2023490</v>
+      </c>
+      <c r="BK2" t="s">
+        <v>249</v>
+      </c>
+      <c r="BL2" t="s">
+        <v>213</v>
+      </c>
+      <c r="BM2">
+        <v>1400</v>
+      </c>
+      <c r="BN2">
+        <v>7</v>
+      </c>
+      <c r="BO2" t="s">
+        <v>254</v>
+      </c>
+      <c r="BP2">
+        <v>43</v>
+      </c>
+      <c r="BQ2">
+        <v>126</v>
+      </c>
+      <c r="BR2">
+        <v>9</v>
+      </c>
+      <c r="BS2">
+        <v>10</v>
+      </c>
+      <c r="BT2">
+        <v>-1</v>
+      </c>
+      <c r="BU2">
+        <v>13.43</v>
+      </c>
+      <c r="BV2">
+        <v>36.26</v>
+      </c>
+      <c r="BW2" t="s">
+        <v>259</v>
+      </c>
+      <c r="BX2" t="s">
+        <v>264</v>
+      </c>
+      <c r="CA2" t="s">
+        <v>268</v>
+      </c>
+      <c r="CB2">
+        <v>14.47</v>
+      </c>
+      <c r="CC2">
+        <v>22.91</v>
+      </c>
+      <c r="CD2">
+        <v>22.93</v>
+      </c>
+      <c r="CE2">
+        <v>22.33</v>
+      </c>
+      <c r="CH2">
+        <v>45.26</v>
+      </c>
+      <c r="CI2">
+        <v>0.117</v>
+      </c>
+      <c r="CJ2">
+        <v>45.377</v>
+      </c>
+      <c r="CK2" t="s">
+        <v>273</v>
+      </c>
+      <c r="CL2" t="s">
+        <v>112</v>
+      </c>
+      <c r="CM2" t="s">
+        <v>240</v>
+      </c>
+      <c r="CN2" t="s">
+        <v>280</v>
+      </c>
+      <c r="CO2" t="s">
+        <v>273</v>
+      </c>
+      <c r="CP2" t="s">
+        <v>289</v>
+      </c>
+      <c r="CQ2" t="s">
+        <v>297</v>
+      </c>
+      <c r="CR2">
+        <v>81.93000000000001</v>
+      </c>
+      <c r="CS2">
+        <v>82.76000000000001</v>
+      </c>
+      <c r="CT2">
+        <v>82.34</v>
+      </c>
+      <c r="CU2">
+        <v>81.93000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:99">
+      <c r="A3" s="2">
+        <v>45760</v>
+      </c>
+      <c r="B3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C3">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E3" t="s">
+        <v>101</v>
+      </c>
+      <c r="F3" t="s">
+        <v>102</v>
+      </c>
+      <c r="G3">
+        <v>1400</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="I3" t="s">
+        <v>104</v>
+      </c>
+      <c r="J3" t="s">
+        <v>113</v>
+      </c>
+      <c r="K3" t="s">
+        <v>122</v>
+      </c>
+      <c r="L3">
+        <v>127</v>
+      </c>
+      <c r="M3" t="s">
+        <v>131</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3" t="s">
+        <v>141</v>
+      </c>
+      <c r="R3">
+        <v>108</v>
+      </c>
+      <c r="S3" t="s">
+        <v>147</v>
+      </c>
+      <c r="U3" t="s">
+        <v>149</v>
+      </c>
+      <c r="V3" t="s">
+        <v>151</v>
+      </c>
+      <c r="W3">
+        <v>5</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>159</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>161</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>170</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>174</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>178</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>187</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>196</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>204</v>
+      </c>
+      <c r="AH3">
+        <v>2024451</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>208</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>213</v>
+      </c>
+      <c r="AK3">
+        <v>1400</v>
+      </c>
+      <c r="AL3">
+        <v>7</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>216</v>
+      </c>
+      <c r="AN3">
+        <v>98</v>
+      </c>
+      <c r="AO3">
+        <v>126</v>
+      </c>
+      <c r="AP3">
+        <v>1</v>
+      </c>
+      <c r="AQ3">
+        <v>3</v>
+      </c>
+      <c r="AR3">
+        <v>-2</v>
+      </c>
+      <c r="AS3">
+        <v>13.12</v>
+      </c>
+      <c r="AT3">
+        <v>34.79</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>224</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>229</v>
+      </c>
+      <c r="AY3" t="s">
+        <v>234</v>
+      </c>
+      <c r="AZ3">
+        <v>13.28</v>
+      </c>
+      <c r="BA3">
+        <v>21.75</v>
+      </c>
+      <c r="BB3">
+        <v>22.86</v>
+      </c>
+      <c r="BC3">
+        <v>22.92</v>
+      </c>
+      <c r="BF3">
+        <v>45.78</v>
+      </c>
+      <c r="BG3">
+        <v>-0.021</v>
+      </c>
+      <c r="BH3">
+        <v>45.759</v>
+      </c>
+      <c r="BI3" t="s">
+        <v>241</v>
+      </c>
+      <c r="CL3" t="s">
+        <v>113</v>
+      </c>
+      <c r="CM3" t="s">
+        <v>241</v>
+      </c>
+      <c r="CN3" t="s">
+        <v>281</v>
+      </c>
+      <c r="CQ3" t="s">
+        <v>241</v>
+      </c>
+      <c r="CR3">
+        <v>80.78999999999999</v>
+      </c>
+      <c r="CT3">
+        <v>80.78999999999999</v>
+      </c>
+      <c r="CU3">
+        <v>80.78999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:99">
+      <c r="A4" s="2">
+        <v>45760</v>
+      </c>
+      <c r="B4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C4">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E4" t="s">
+        <v>101</v>
+      </c>
+      <c r="F4" t="s">
+        <v>102</v>
+      </c>
+      <c r="G4">
+        <v>1400</v>
+      </c>
+      <c r="H4">
+        <v>3</v>
+      </c>
+      <c r="I4" t="s">
+        <v>105</v>
+      </c>
+      <c r="J4" t="s">
+        <v>114</v>
+      </c>
+      <c r="K4" t="s">
+        <v>123</v>
+      </c>
+      <c r="L4">
+        <v>127</v>
+      </c>
+      <c r="M4" t="s">
+        <v>132</v>
+      </c>
+      <c r="O4">
+        <v>2</v>
+      </c>
+      <c r="P4" t="s">
+        <v>142</v>
+      </c>
+      <c r="R4">
+        <v>108</v>
+      </c>
+      <c r="S4" t="s">
+        <v>148</v>
+      </c>
+      <c r="U4" t="s">
+        <v>149</v>
+      </c>
+      <c r="V4" t="s">
+        <v>152</v>
+      </c>
+      <c r="W4">
+        <v>5</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>159</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>162</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>171</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>175</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>179</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>188</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>197</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>205</v>
+      </c>
+      <c r="AH4">
+        <v>2024451</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>208</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>213</v>
+      </c>
+      <c r="AK4">
+        <v>1400</v>
+      </c>
+      <c r="AL4">
+        <v>8</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>217</v>
+      </c>
+      <c r="AN4">
+        <v>18</v>
+      </c>
+      <c r="AO4">
+        <v>126</v>
+      </c>
+      <c r="AP4">
+        <v>1</v>
+      </c>
+      <c r="AQ4">
+        <v>8</v>
+      </c>
+      <c r="AR4">
+        <v>-6</v>
+      </c>
+      <c r="AS4">
+        <v>13.12</v>
+      </c>
+      <c r="AT4">
+        <v>34.79</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>224</v>
+      </c>
+      <c r="AV4" t="s">
+        <v>229</v>
+      </c>
+      <c r="AY4" t="s">
+        <v>230</v>
+      </c>
+      <c r="AZ4">
+        <v>14.04</v>
+      </c>
+      <c r="BA4">
+        <v>21.55</v>
+      </c>
+      <c r="BB4">
+        <v>22.46</v>
+      </c>
+      <c r="BC4">
+        <v>22.84</v>
+      </c>
+      <c r="BF4">
+        <v>45.3</v>
+      </c>
+      <c r="BG4">
+        <v>-0.09299999999999999</v>
+      </c>
+      <c r="BH4">
+        <v>45.20699999999999</v>
+      </c>
+      <c r="BI4" t="s">
+        <v>242</v>
+      </c>
+      <c r="BJ4">
+        <v>2024314</v>
+      </c>
+      <c r="BK4" t="s">
+        <v>207</v>
+      </c>
+      <c r="BL4" t="s">
+        <v>212</v>
+      </c>
+      <c r="BM4">
+        <v>1400</v>
+      </c>
+      <c r="BN4">
+        <v>1</v>
+      </c>
+      <c r="BO4" t="s">
+        <v>255</v>
+      </c>
+      <c r="BP4">
+        <v>2.2</v>
+      </c>
+      <c r="BQ4">
+        <v>115</v>
+      </c>
+      <c r="BR4">
+        <v>12</v>
+      </c>
+      <c r="BS4">
+        <v>7</v>
+      </c>
+      <c r="BT4">
+        <v>-5</v>
+      </c>
+      <c r="BU4">
+        <v>13.27</v>
+      </c>
+      <c r="BV4">
+        <v>34.75</v>
+      </c>
+      <c r="BW4" t="s">
+        <v>223</v>
+      </c>
+      <c r="BX4" t="s">
+        <v>228</v>
+      </c>
+      <c r="CA4" t="s">
+        <v>228</v>
+      </c>
+      <c r="CB4">
+        <v>13.51</v>
+      </c>
+      <c r="CC4">
+        <v>21.6</v>
+      </c>
+      <c r="CD4">
+        <v>22.89</v>
+      </c>
+      <c r="CE4">
+        <v>22.91</v>
+      </c>
+      <c r="CH4">
+        <v>45.8</v>
+      </c>
+      <c r="CI4">
+        <v>0.09</v>
+      </c>
+      <c r="CJ4">
+        <v>45.89</v>
+      </c>
+      <c r="CK4" t="s">
+        <v>274</v>
+      </c>
+      <c r="CL4" t="s">
+        <v>114</v>
+      </c>
+      <c r="CM4" t="s">
+        <v>242</v>
+      </c>
+      <c r="CN4" t="s">
+        <v>282</v>
+      </c>
+      <c r="CO4" t="s">
+        <v>274</v>
+      </c>
+      <c r="CP4" t="s">
+        <v>290</v>
+      </c>
+      <c r="CQ4" t="s">
+        <v>298</v>
+      </c>
+      <c r="CR4">
+        <v>80.8</v>
+      </c>
+      <c r="CS4">
+        <v>81</v>
+      </c>
+      <c r="CT4">
+        <v>80.90000000000001</v>
+      </c>
+      <c r="CU4">
+        <v>80.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:99">
+      <c r="A5" s="2">
+        <v>45760</v>
+      </c>
+      <c r="B5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C5">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>100</v>
+      </c>
+      <c r="E5" t="s">
+        <v>101</v>
+      </c>
+      <c r="F5" t="s">
+        <v>102</v>
+      </c>
+      <c r="G5">
+        <v>1400</v>
+      </c>
+      <c r="H5">
+        <v>4</v>
+      </c>
+      <c r="I5" t="s">
+        <v>106</v>
+      </c>
+      <c r="J5" t="s">
+        <v>115</v>
+      </c>
+      <c r="K5" t="s">
+        <v>124</v>
+      </c>
+      <c r="L5">
+        <v>126</v>
+      </c>
+      <c r="M5" t="s">
+        <v>133</v>
+      </c>
+      <c r="O5">
+        <v>6</v>
+      </c>
+      <c r="P5" t="s">
+        <v>143</v>
+      </c>
+      <c r="R5">
+        <v>107</v>
+      </c>
+      <c r="S5" t="s">
+        <v>146</v>
+      </c>
+      <c r="U5" t="s">
+        <v>149</v>
+      </c>
+      <c r="V5" t="s">
+        <v>153</v>
+      </c>
+      <c r="W5">
+        <v>6</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>159</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>163</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>170</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>180</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>189</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>198</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>204</v>
+      </c>
+      <c r="AH5">
+        <v>2024451</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>208</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>213</v>
+      </c>
+      <c r="AK5">
+        <v>1400</v>
+      </c>
+      <c r="AL5">
+        <v>9</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>218</v>
+      </c>
+      <c r="AN5">
+        <v>72</v>
+      </c>
+      <c r="AO5">
+        <v>126</v>
+      </c>
+      <c r="AP5">
+        <v>0</v>
+      </c>
+      <c r="AQ5">
+        <v>5</v>
+      </c>
+      <c r="AR5">
+        <v>1</v>
+      </c>
+      <c r="AS5">
+        <v>13.12</v>
+      </c>
+      <c r="AT5">
+        <v>34.79</v>
+      </c>
+      <c r="AU5" t="s">
+        <v>224</v>
+      </c>
+      <c r="AV5" t="s">
+        <v>229</v>
+      </c>
+      <c r="AY5" t="s">
+        <v>235</v>
+      </c>
+      <c r="AZ5">
+        <v>14.32</v>
+      </c>
+      <c r="BA5">
+        <v>21.59</v>
+      </c>
+      <c r="BB5">
+        <v>22.38</v>
+      </c>
+      <c r="BC5">
+        <v>22.88</v>
+      </c>
+      <c r="BF5">
+        <v>45.26</v>
+      </c>
+      <c r="BG5">
+        <v>0.018</v>
+      </c>
+      <c r="BH5">
+        <v>45.278</v>
+      </c>
+      <c r="BI5" t="s">
+        <v>243</v>
+      </c>
+      <c r="BJ5">
+        <v>2023769</v>
+      </c>
+      <c r="BK5" t="s">
+        <v>250</v>
+      </c>
+      <c r="BL5" t="s">
+        <v>212</v>
+      </c>
+      <c r="BM5">
+        <v>1400</v>
+      </c>
+      <c r="BN5">
+        <v>1</v>
+      </c>
+      <c r="BO5" t="s">
+        <v>255</v>
+      </c>
+      <c r="BP5">
+        <v>3.1</v>
+      </c>
+      <c r="BQ5">
+        <v>115</v>
+      </c>
+      <c r="BR5">
+        <v>11</v>
+      </c>
+      <c r="BS5">
+        <v>3</v>
+      </c>
+      <c r="BT5">
+        <v>3</v>
+      </c>
+      <c r="BU5">
+        <v>13.24</v>
+      </c>
+      <c r="BV5">
+        <v>34.92</v>
+      </c>
+      <c r="BW5" t="s">
+        <v>260</v>
+      </c>
+      <c r="BX5" t="s">
+        <v>265</v>
+      </c>
+      <c r="CA5" t="s">
+        <v>265</v>
+      </c>
+      <c r="CB5">
+        <v>13.72</v>
+      </c>
+      <c r="CC5">
+        <v>21.96</v>
+      </c>
+      <c r="CD5">
+        <v>23.02</v>
+      </c>
+      <c r="CE5">
+        <v>23.07</v>
+      </c>
+      <c r="CH5">
+        <v>46.09</v>
+      </c>
+      <c r="CI5">
+        <v>0.219</v>
+      </c>
+      <c r="CJ5">
+        <v>46.309</v>
+      </c>
+      <c r="CK5" t="s">
+        <v>275</v>
+      </c>
+      <c r="CL5" t="s">
+        <v>115</v>
+      </c>
+      <c r="CM5" t="s">
+        <v>243</v>
+      </c>
+      <c r="CN5" t="s">
+        <v>283</v>
+      </c>
+      <c r="CO5" t="s">
+        <v>275</v>
+      </c>
+      <c r="CP5" t="s">
+        <v>291</v>
+      </c>
+      <c r="CQ5" t="s">
+        <v>299</v>
+      </c>
+      <c r="CR5">
+        <v>81.19</v>
+      </c>
+      <c r="CS5">
+        <v>81.98999999999999</v>
+      </c>
+      <c r="CT5">
+        <v>81.59</v>
+      </c>
+      <c r="CU5">
+        <v>81.19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:99">
+      <c r="A6" s="2">
+        <v>45760</v>
+      </c>
+      <c r="B6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C6">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>100</v>
+      </c>
+      <c r="E6" t="s">
+        <v>101</v>
+      </c>
+      <c r="F6" t="s">
+        <v>102</v>
+      </c>
+      <c r="G6">
+        <v>1400</v>
+      </c>
+      <c r="H6">
+        <v>5</v>
+      </c>
+      <c r="I6" t="s">
+        <v>107</v>
+      </c>
+      <c r="J6" t="s">
+        <v>116</v>
+      </c>
+      <c r="K6" t="s">
+        <v>125</v>
+      </c>
+      <c r="L6">
+        <v>122</v>
+      </c>
+      <c r="M6" t="s">
+        <v>134</v>
+      </c>
+      <c r="O6">
+        <v>7</v>
+      </c>
+      <c r="P6" t="s">
+        <v>143</v>
+      </c>
+      <c r="R6">
+        <v>103</v>
+      </c>
+      <c r="S6" t="s">
+        <v>147</v>
+      </c>
+      <c r="U6" t="s">
+        <v>149</v>
+      </c>
+      <c r="V6" t="s">
+        <v>154</v>
+      </c>
+      <c r="W6">
+        <v>6</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>159</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>164</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>170</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>181</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>190</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>199</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>204</v>
+      </c>
+      <c r="AH6">
+        <v>2024314</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>207</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>212</v>
+      </c>
+      <c r="AK6">
+        <v>1400</v>
+      </c>
+      <c r="AL6">
+        <v>6</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>219</v>
+      </c>
+      <c r="AN6">
+        <v>17</v>
+      </c>
+      <c r="AO6">
+        <v>120</v>
+      </c>
+      <c r="AP6">
+        <v>2</v>
+      </c>
+      <c r="AQ6">
+        <v>1</v>
+      </c>
+      <c r="AR6">
+        <v>6</v>
+      </c>
+      <c r="AS6">
+        <v>13.27</v>
+      </c>
+      <c r="AT6">
+        <v>34.75</v>
+      </c>
+      <c r="AU6" t="s">
+        <v>223</v>
+      </c>
+      <c r="AV6" t="s">
+        <v>228</v>
+      </c>
+      <c r="AY6" t="s">
+        <v>236</v>
+      </c>
+      <c r="AZ6">
+        <v>13.87</v>
+      </c>
+      <c r="BA6">
+        <v>21.76</v>
+      </c>
+      <c r="BB6">
+        <v>22.81</v>
+      </c>
+      <c r="BC6">
+        <v>23.23</v>
+      </c>
+      <c r="BF6">
+        <v>46.04</v>
+      </c>
+      <c r="BG6">
+        <v>0.138</v>
+      </c>
+      <c r="BH6">
+        <v>46.178</v>
+      </c>
+      <c r="BI6" t="s">
+        <v>244</v>
+      </c>
+      <c r="BJ6">
+        <v>2024043</v>
+      </c>
+      <c r="BK6" t="s">
+        <v>251</v>
+      </c>
+      <c r="BL6" t="s">
+        <v>212</v>
+      </c>
+      <c r="BM6">
+        <v>1400</v>
+      </c>
+      <c r="BN6">
+        <v>2</v>
+      </c>
+      <c r="BO6" t="s">
+        <v>219</v>
+      </c>
+      <c r="BP6">
+        <v>7.2</v>
+      </c>
+      <c r="BQ6">
+        <v>135</v>
+      </c>
+      <c r="BR6">
+        <v>-13</v>
+      </c>
+      <c r="BS6">
+        <v>1</v>
+      </c>
+      <c r="BT6">
+        <v>6</v>
+      </c>
+      <c r="BU6">
+        <v>13.57</v>
+      </c>
+      <c r="BV6">
+        <v>36.03</v>
+      </c>
+      <c r="BW6" t="s">
+        <v>261</v>
+      </c>
+      <c r="BX6" t="s">
+        <v>266</v>
+      </c>
+      <c r="CA6" t="s">
+        <v>269</v>
+      </c>
+      <c r="CB6">
+        <v>13.89</v>
+      </c>
+      <c r="CC6">
+        <v>22.42</v>
+      </c>
+      <c r="CD6">
+        <v>23.24</v>
+      </c>
+      <c r="CE6">
+        <v>23.28</v>
+      </c>
+      <c r="CH6">
+        <v>46.52</v>
+      </c>
+      <c r="CI6">
+        <v>-0.08700000000000002</v>
+      </c>
+      <c r="CJ6">
+        <v>46.433</v>
+      </c>
+      <c r="CK6" t="s">
+        <v>266</v>
+      </c>
+      <c r="CL6" t="s">
+        <v>116</v>
+      </c>
+      <c r="CM6" t="s">
+        <v>244</v>
+      </c>
+      <c r="CN6" t="s">
+        <v>284</v>
+      </c>
+      <c r="CO6" t="s">
+        <v>266</v>
+      </c>
+      <c r="CP6" t="s">
+        <v>292</v>
+      </c>
+      <c r="CQ6" t="s">
+        <v>300</v>
+      </c>
+      <c r="CR6">
+        <v>81.81</v>
+      </c>
+      <c r="CS6">
+        <v>82.73999999999999</v>
+      </c>
+      <c r="CT6">
+        <v>82.28</v>
+      </c>
+      <c r="CU6">
+        <v>81.81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:99">
+      <c r="A7" s="2">
+        <v>45760</v>
+      </c>
+      <c r="B7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C7">
+        <v>8</v>
+      </c>
+      <c r="D7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G7">
+        <v>1400</v>
+      </c>
+      <c r="H7">
+        <v>6</v>
+      </c>
+      <c r="I7" t="s">
+        <v>108</v>
+      </c>
+      <c r="J7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K7" t="s">
+        <v>126</v>
+      </c>
+      <c r="L7">
+        <v>119</v>
+      </c>
+      <c r="M7" t="s">
+        <v>135</v>
+      </c>
+      <c r="O7">
+        <v>8</v>
+      </c>
+      <c r="P7" t="s">
+        <v>144</v>
+      </c>
+      <c r="R7">
+        <v>100</v>
+      </c>
+      <c r="S7" t="s">
+        <v>148</v>
+      </c>
+      <c r="U7" t="s">
+        <v>149</v>
+      </c>
+      <c r="V7" t="s">
+        <v>155</v>
+      </c>
+      <c r="W7">
+        <v>4</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>159</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>165</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>172</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>174</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>182</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>191</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>200</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>206</v>
+      </c>
+      <c r="AH7">
+        <v>2024343</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>209</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>214</v>
+      </c>
+      <c r="AK7">
+        <v>1400</v>
+      </c>
+      <c r="AL7">
+        <v>1</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>220</v>
+      </c>
+      <c r="AN7">
+        <v>6.6</v>
+      </c>
+      <c r="AO7">
+        <v>123</v>
+      </c>
+      <c r="AP7">
+        <v>-4</v>
+      </c>
+      <c r="AQ7">
+        <v>2</v>
+      </c>
+      <c r="AR7">
+        <v>6</v>
+      </c>
+      <c r="AS7">
+        <v>13.52</v>
+      </c>
+      <c r="AT7">
+        <v>35.2</v>
+      </c>
+      <c r="AU7" t="s">
+        <v>225</v>
+      </c>
+      <c r="AV7" t="s">
+        <v>230</v>
+      </c>
+      <c r="AY7" t="s">
+        <v>230</v>
+      </c>
+      <c r="AZ7">
+        <v>14.04</v>
+      </c>
+      <c r="BA7">
+        <v>21.92</v>
+      </c>
+      <c r="BB7">
+        <v>22.23</v>
+      </c>
+      <c r="BC7">
+        <v>22.7</v>
+      </c>
+      <c r="BF7">
+        <v>44.93</v>
+      </c>
+      <c r="BG7">
+        <v>0.04799999999999999</v>
+      </c>
+      <c r="BH7">
+        <v>44.978</v>
+      </c>
+      <c r="BI7" t="s">
+        <v>245</v>
+      </c>
+      <c r="BJ7">
+        <v>2024249</v>
+      </c>
+      <c r="BK7" t="s">
+        <v>252</v>
+      </c>
+      <c r="BL7" t="s">
+        <v>214</v>
+      </c>
+      <c r="BM7">
+        <v>1400</v>
+      </c>
+      <c r="BN7">
+        <v>2</v>
+      </c>
+      <c r="BO7" t="s">
+        <v>256</v>
+      </c>
+      <c r="BP7">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="BQ7">
+        <v>116</v>
+      </c>
+      <c r="BR7">
+        <v>3</v>
+      </c>
+      <c r="BS7">
+        <v>11</v>
+      </c>
+      <c r="BT7">
+        <v>-3</v>
+      </c>
+      <c r="BU7">
+        <v>13.31</v>
+      </c>
+      <c r="BV7">
+        <v>34.98</v>
+      </c>
+      <c r="BW7" t="s">
+        <v>262</v>
+      </c>
+      <c r="BX7" t="s">
+        <v>231</v>
+      </c>
+      <c r="CA7" t="s">
+        <v>270</v>
+      </c>
+      <c r="CB7">
+        <v>14.15</v>
+      </c>
+      <c r="CC7">
+        <v>22.07</v>
+      </c>
+      <c r="CD7">
+        <v>22.83</v>
+      </c>
+      <c r="CE7">
+        <v>22.27</v>
+      </c>
+      <c r="CH7">
+        <v>45.1</v>
+      </c>
+      <c r="CI7">
+        <v>-0.008999999999999994</v>
+      </c>
+      <c r="CJ7">
+        <v>45.091</v>
+      </c>
+      <c r="CK7" t="s">
+        <v>276</v>
+      </c>
+      <c r="CL7" t="s">
+        <v>117</v>
+      </c>
+      <c r="CM7" t="s">
+        <v>245</v>
+      </c>
+      <c r="CN7" t="s">
+        <v>285</v>
+      </c>
+      <c r="CO7" t="s">
+        <v>276</v>
+      </c>
+      <c r="CP7" t="s">
+        <v>293</v>
+      </c>
+      <c r="CQ7" t="s">
+        <v>301</v>
+      </c>
+      <c r="CR7">
+        <v>80.94</v>
+      </c>
+      <c r="CS7">
+        <v>81.31</v>
+      </c>
+      <c r="CT7">
+        <v>81.12</v>
+      </c>
+      <c r="CU7">
+        <v>80.94</v>
+      </c>
+    </row>
+    <row r="8" spans="1:99">
+      <c r="A8" s="2">
+        <v>45760</v>
+      </c>
+      <c r="B8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C8">
+        <v>8</v>
+      </c>
+      <c r="D8" t="s">
+        <v>100</v>
+      </c>
+      <c r="E8" t="s">
+        <v>101</v>
+      </c>
+      <c r="F8" t="s">
+        <v>102</v>
+      </c>
+      <c r="G8">
+        <v>1400</v>
+      </c>
+      <c r="H8">
+        <v>7</v>
+      </c>
+      <c r="I8" t="s">
+        <v>109</v>
+      </c>
+      <c r="J8" t="s">
+        <v>118</v>
+      </c>
+      <c r="K8" t="s">
+        <v>127</v>
+      </c>
+      <c r="L8">
+        <v>115</v>
+      </c>
+      <c r="M8" t="s">
+        <v>136</v>
+      </c>
+      <c r="N8" t="s">
+        <v>139</v>
+      </c>
+      <c r="O8">
+        <v>4</v>
+      </c>
+      <c r="P8" t="s">
+        <v>143</v>
+      </c>
+      <c r="R8">
+        <v>96</v>
+      </c>
+      <c r="S8" t="s">
+        <v>146</v>
+      </c>
+      <c r="U8" t="s">
+        <v>149</v>
+      </c>
+      <c r="V8" t="s">
+        <v>156</v>
+      </c>
+      <c r="W8">
+        <v>6</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>159</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>166</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>170</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>183</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>192</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>201</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>204</v>
+      </c>
+      <c r="AH8">
+        <v>2024392</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>210</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>214</v>
+      </c>
+      <c r="AK8">
+        <v>1400</v>
+      </c>
+      <c r="AL8">
+        <v>7</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>221</v>
+      </c>
+      <c r="AN8">
+        <v>7</v>
+      </c>
+      <c r="AO8">
+        <v>121</v>
+      </c>
+      <c r="AP8">
+        <v>-6</v>
+      </c>
+      <c r="AQ8">
+        <v>11</v>
+      </c>
+      <c r="AR8">
+        <v>-7</v>
+      </c>
+      <c r="AS8">
+        <v>13.25</v>
+      </c>
+      <c r="AT8">
+        <v>34.27</v>
+      </c>
+      <c r="AU8" t="s">
+        <v>226</v>
+      </c>
+      <c r="AV8" t="s">
+        <v>231</v>
+      </c>
+      <c r="AY8" t="s">
+        <v>237</v>
+      </c>
+      <c r="AZ8">
+        <v>13.29</v>
+      </c>
+      <c r="BA8">
+        <v>20.98</v>
+      </c>
+      <c r="BB8">
+        <v>23.64</v>
+      </c>
+      <c r="BC8">
+        <v>23.71</v>
+      </c>
+      <c r="BF8">
+        <v>47.35</v>
+      </c>
+      <c r="BG8">
+        <v>-0.216</v>
+      </c>
+      <c r="BH8">
+        <v>47.134</v>
+      </c>
+      <c r="BI8" t="s">
+        <v>246</v>
+      </c>
+      <c r="BJ8">
+        <v>2024314</v>
+      </c>
+      <c r="BK8" t="s">
+        <v>207</v>
+      </c>
+      <c r="BL8" t="s">
+        <v>212</v>
+      </c>
+      <c r="BM8">
+        <v>1400</v>
+      </c>
+      <c r="BN8">
+        <v>2</v>
+      </c>
+      <c r="BO8" t="s">
+        <v>257</v>
+      </c>
+      <c r="BP8">
+        <v>8.4</v>
+      </c>
+      <c r="BQ8">
+        <v>115</v>
+      </c>
+      <c r="BR8">
+        <v>0</v>
+      </c>
+      <c r="BS8">
+        <v>11</v>
+      </c>
+      <c r="BT8">
+        <v>-7</v>
+      </c>
+      <c r="BU8">
+        <v>13.27</v>
+      </c>
+      <c r="BV8">
+        <v>34.75</v>
+      </c>
+      <c r="BW8" t="s">
+        <v>223</v>
+      </c>
+      <c r="BX8" t="s">
+        <v>228</v>
+      </c>
+      <c r="CA8" t="s">
+        <v>271</v>
+      </c>
+      <c r="CB8">
+        <v>13.27</v>
+      </c>
+      <c r="CC8">
+        <v>21.48</v>
+      </c>
+      <c r="CD8">
+        <v>22.93</v>
+      </c>
+      <c r="CE8">
+        <v>23.52</v>
+      </c>
+      <c r="CH8">
+        <v>46.45</v>
+      </c>
+      <c r="CI8">
+        <v>-0.126</v>
+      </c>
+      <c r="CJ8">
+        <v>46.32400000000001</v>
+      </c>
+      <c r="CK8" t="s">
+        <v>277</v>
+      </c>
+      <c r="CL8" t="s">
+        <v>118</v>
+      </c>
+      <c r="CM8" t="s">
+        <v>246</v>
+      </c>
+      <c r="CN8" t="s">
+        <v>286</v>
+      </c>
+      <c r="CO8" t="s">
+        <v>277</v>
+      </c>
+      <c r="CP8" t="s">
+        <v>294</v>
+      </c>
+      <c r="CQ8" t="s">
+        <v>302</v>
+      </c>
+      <c r="CR8">
+        <v>81.40000000000001</v>
+      </c>
+      <c r="CS8">
+        <v>81.06999999999999</v>
+      </c>
+      <c r="CT8">
+        <v>81.23</v>
+      </c>
+      <c r="CU8">
+        <v>81.06999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:99">
+      <c r="A9" s="2">
+        <v>45760</v>
+      </c>
+      <c r="B9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C9">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>100</v>
+      </c>
+      <c r="E9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F9" t="s">
+        <v>102</v>
+      </c>
+      <c r="G9">
+        <v>1400</v>
+      </c>
+      <c r="H9">
+        <v>8</v>
+      </c>
+      <c r="I9" t="s">
+        <v>110</v>
+      </c>
+      <c r="J9" t="s">
+        <v>119</v>
+      </c>
+      <c r="K9" t="s">
+        <v>128</v>
+      </c>
+      <c r="L9">
+        <v>115</v>
+      </c>
+      <c r="M9" t="s">
+        <v>137</v>
+      </c>
+      <c r="N9" t="s">
+        <v>139</v>
+      </c>
+      <c r="O9">
+        <v>5</v>
+      </c>
+      <c r="P9" t="s">
+        <v>145</v>
+      </c>
+      <c r="R9">
+        <v>93</v>
+      </c>
+      <c r="S9" t="s">
+        <v>148</v>
+      </c>
+      <c r="U9" t="s">
+        <v>149</v>
+      </c>
+      <c r="V9" t="s">
+        <v>157</v>
+      </c>
+      <c r="W9">
+        <v>7</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>159</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>167</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>170</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>176</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>184</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>193</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>202</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>204</v>
+      </c>
+      <c r="AH9">
+        <v>2024392</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>210</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>214</v>
+      </c>
+      <c r="AK9">
+        <v>1400</v>
+      </c>
+      <c r="AL9">
+        <v>2</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>217</v>
+      </c>
+      <c r="AN9">
+        <v>57</v>
+      </c>
+      <c r="AO9">
+        <v>121</v>
+      </c>
+      <c r="AP9">
+        <v>-6</v>
+      </c>
+      <c r="AQ9">
+        <v>1</v>
+      </c>
+      <c r="AR9">
+        <v>4</v>
+      </c>
+      <c r="AS9">
+        <v>13.25</v>
+      </c>
+      <c r="AT9">
+        <v>34.27</v>
+      </c>
+      <c r="AU9" t="s">
+        <v>226</v>
+      </c>
+      <c r="AV9" t="s">
+        <v>231</v>
+      </c>
+      <c r="AY9" t="s">
+        <v>238</v>
+      </c>
+      <c r="AZ9">
+        <v>13.65</v>
+      </c>
+      <c r="BA9">
+        <v>21.86</v>
+      </c>
+      <c r="BB9">
+        <v>22.88</v>
+      </c>
+      <c r="BC9">
+        <v>22.98</v>
+      </c>
+      <c r="BF9">
+        <v>45.86</v>
+      </c>
+      <c r="BG9">
+        <v>-0.018</v>
+      </c>
+      <c r="BH9">
+        <v>45.842</v>
+      </c>
+      <c r="BI9" t="s">
+        <v>247</v>
+      </c>
+      <c r="BJ9">
+        <v>2023713</v>
+      </c>
+      <c r="BK9" t="s">
+        <v>253</v>
+      </c>
+      <c r="BL9" t="s">
+        <v>214</v>
+      </c>
+      <c r="BM9">
+        <v>1400</v>
+      </c>
+      <c r="BN9">
+        <v>6</v>
+      </c>
+      <c r="BO9" t="s">
+        <v>217</v>
+      </c>
+      <c r="BP9">
+        <v>18</v>
+      </c>
+      <c r="BQ9">
+        <v>135</v>
+      </c>
+      <c r="BR9">
+        <v>-20</v>
+      </c>
+      <c r="BS9">
+        <v>3</v>
+      </c>
+      <c r="BT9">
+        <v>2</v>
+      </c>
+      <c r="BU9">
+        <v>13.88</v>
+      </c>
+      <c r="BV9">
+        <v>37.01</v>
+      </c>
+      <c r="BW9" t="s">
+        <v>263</v>
+      </c>
+      <c r="BX9" t="s">
+        <v>267</v>
+      </c>
+      <c r="CA9" t="s">
+        <v>272</v>
+      </c>
+      <c r="CB9">
+        <v>14.28</v>
+      </c>
+      <c r="CC9">
+        <v>23.17</v>
+      </c>
+      <c r="CD9">
+        <v>23.75</v>
+      </c>
+      <c r="CE9">
+        <v>21.96</v>
+      </c>
+      <c r="CH9">
+        <v>45.71</v>
+      </c>
+      <c r="CI9">
+        <v>-0.264</v>
+      </c>
+      <c r="CJ9">
+        <v>45.446</v>
+      </c>
+      <c r="CK9" t="s">
+        <v>278</v>
+      </c>
+      <c r="CL9" t="s">
+        <v>119</v>
+      </c>
+      <c r="CM9" t="s">
+        <v>247</v>
+      </c>
+      <c r="CN9" t="s">
+        <v>287</v>
+      </c>
+      <c r="CO9" t="s">
+        <v>278</v>
+      </c>
+      <c r="CP9" t="s">
+        <v>295</v>
+      </c>
+      <c r="CQ9" t="s">
+        <v>303</v>
+      </c>
+      <c r="CR9">
+        <v>81.34999999999999</v>
+      </c>
+      <c r="CS9">
+        <v>82.90000000000001</v>
+      </c>
+      <c r="CT9">
+        <v>82.12</v>
+      </c>
+      <c r="CU9">
+        <v>81.34999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:99">
+      <c r="A10" s="2">
+        <v>45760</v>
+      </c>
+      <c r="B10" t="s">
+        <v>99</v>
+      </c>
+      <c r="C10">
+        <v>8</v>
+      </c>
+      <c r="D10" t="s">
+        <v>100</v>
+      </c>
+      <c r="E10" t="s">
+        <v>101</v>
+      </c>
+      <c r="F10" t="s">
+        <v>102</v>
+      </c>
+      <c r="G10">
+        <v>1400</v>
+      </c>
+      <c r="H10">
+        <v>9</v>
+      </c>
+      <c r="I10" t="s">
+        <v>111</v>
+      </c>
+      <c r="J10" t="s">
+        <v>120</v>
+      </c>
+      <c r="K10" t="s">
+        <v>129</v>
+      </c>
+      <c r="L10">
+        <v>115</v>
+      </c>
+      <c r="M10" t="s">
+        <v>138</v>
+      </c>
+      <c r="O10">
+        <v>3</v>
+      </c>
+      <c r="P10" t="s">
+        <v>142</v>
+      </c>
+      <c r="R10">
+        <v>92</v>
+      </c>
+      <c r="S10" t="s">
+        <v>139</v>
+      </c>
+      <c r="U10" t="s">
+        <v>149</v>
+      </c>
+      <c r="V10" t="s">
+        <v>158</v>
+      </c>
+      <c r="W10">
+        <v>4</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>159</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>168</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>172</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>173</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>185</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>194</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>203</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>206</v>
+      </c>
+      <c r="AH10">
+        <v>2024525</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>211</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>214</v>
+      </c>
+      <c r="AK10">
+        <v>1400</v>
+      </c>
+      <c r="AL10">
+        <v>3</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>222</v>
+      </c>
+      <c r="AN10">
+        <v>5.1</v>
+      </c>
+      <c r="AO10">
+        <v>126</v>
+      </c>
+      <c r="AP10">
+        <v>-11</v>
+      </c>
+      <c r="AQ10">
+        <v>1</v>
+      </c>
+      <c r="AR10">
+        <v>2</v>
+      </c>
+      <c r="AS10">
+        <v>13.45</v>
+      </c>
+      <c r="AT10">
+        <v>34.49</v>
+      </c>
+      <c r="AU10" t="s">
+        <v>227</v>
+      </c>
+      <c r="AV10" t="s">
+        <v>232</v>
+      </c>
+      <c r="AY10" t="s">
+        <v>239</v>
+      </c>
+      <c r="AZ10">
+        <v>13.65</v>
+      </c>
+      <c r="BA10">
+        <v>21.48</v>
+      </c>
+      <c r="BB10">
+        <v>22.17</v>
+      </c>
+      <c r="BC10">
+        <v>22.76</v>
+      </c>
+      <c r="BF10">
+        <v>44.93</v>
+      </c>
+      <c r="BG10">
+        <v>-0.129</v>
+      </c>
+      <c r="BH10">
+        <v>44.801</v>
+      </c>
+      <c r="BI10" t="s">
+        <v>248</v>
+      </c>
+      <c r="BJ10">
+        <v>2024343</v>
+      </c>
+      <c r="BK10" t="s">
+        <v>209</v>
+      </c>
+      <c r="BL10" t="s">
+        <v>214</v>
+      </c>
+      <c r="BM10">
+        <v>1400</v>
+      </c>
+      <c r="BN10">
+        <v>8</v>
+      </c>
+      <c r="BO10" t="s">
+        <v>258</v>
+      </c>
+      <c r="BP10">
+        <v>12</v>
+      </c>
+      <c r="BQ10">
+        <v>123</v>
+      </c>
+      <c r="BR10">
+        <v>-8</v>
+      </c>
+      <c r="BS10">
+        <v>1</v>
+      </c>
+      <c r="BT10">
+        <v>2</v>
+      </c>
+      <c r="BU10">
+        <v>13.52</v>
+      </c>
+      <c r="BV10">
+        <v>35.2</v>
+      </c>
+      <c r="BW10" t="s">
+        <v>225</v>
+      </c>
+      <c r="BX10" t="s">
+        <v>230</v>
+      </c>
+      <c r="CA10" t="s">
+        <v>247</v>
+      </c>
+      <c r="CB10">
+        <v>13.76</v>
+      </c>
+      <c r="CC10">
+        <v>21.68</v>
+      </c>
+      <c r="CD10">
+        <v>22.63</v>
+      </c>
+      <c r="CE10">
+        <v>23.28</v>
+      </c>
+      <c r="CH10">
+        <v>45.91</v>
+      </c>
+      <c r="CI10">
+        <v>-0.08399999999999999</v>
+      </c>
+      <c r="CJ10">
+        <v>45.82599999999999</v>
+      </c>
+      <c r="CK10" t="s">
+        <v>279</v>
+      </c>
+      <c r="CL10" t="s">
+        <v>120</v>
+      </c>
+      <c r="CM10" t="s">
+        <v>248</v>
+      </c>
+      <c r="CN10" t="s">
+        <v>288</v>
+      </c>
+      <c r="CO10" t="s">
+        <v>279</v>
+      </c>
+      <c r="CP10" t="s">
+        <v>296</v>
+      </c>
+      <c r="CQ10" t="s">
+        <v>304</v>
+      </c>
+      <c r="CR10">
+        <v>79.93000000000001</v>
+      </c>
+      <c r="CS10">
+        <v>81.27</v>
+      </c>
+      <c r="CT10">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="CU10">
+        <v>79.93000000000001</v>
       </c>
     </row>
   </sheetData>
